--- a/biology/Botanique/Potamogeton_pusillus/Potamogeton_pusillus.xlsx
+++ b/biology/Botanique/Potamogeton_pusillus/Potamogeton_pusillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potamogeton pusillus, le potamot nain, est une espèce de plantes aquatiques hydrophytes de la famille des Potamogetonaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le potamot nain est une plante sans rhizome. La tige est non tachetée et elle mesure de 18 à 150 cm. Les nœuds sont parfois dotés de glandes de couleur verte, dorée, brune ou parfois blanche. Les feuilles sessiles et submergées sont arrangées spiralement. Les stipules sont persistants[1].
-L'inflorescence est non ramifiée, submergée ou émergée. La floraison est estivale. Les fruits sont sessiles, vert ou brun, ovoïde ou obovoïde, à bec érigé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le potamot nain est une plante sans rhizome. La tige est non tachetée et elle mesure de 18 à 150 cm. Les nœuds sont parfois dotés de glandes de couleur verte, dorée, brune ou parfois blanche. Les feuilles sessiles et submergées sont arrangées spiralement. Les stipules sont persistants.
+L'inflorescence est non ramifiée, submergée ou émergée. La floraison est estivale. Les fruits sont sessiles, vert ou brun, ovoïde ou obovoïde, à bec érigé.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe trois sous-espèces[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe trois sous-espèces:
 Potamogeton pusillus subsp. gemmiparus (J. W. Robbins) R. R. Haynes &amp; Hellquist
 Potamogeton pusillus subsp. pusillus L.
 Potamogeton pusillus subsp. tenuissimus (Mertens &amp; W. D. J. Koch) R. R. Haynes &amp; Hellquist
-Ce potamot s'hybride avec P. perfoliatus pour former P. x mysticus Morong. Croisé avec P. friesii, il donne P. x pusilliformis Fisher. Croisé avec P. obtusifloius, on obtient P. x saxonicus Hagström[1].
+Ce potamot s'hybride avec P. perfoliatus pour former P. x mysticus Morong. Croisé avec P. friesii, il donne P. x pusilliformis Fisher. Croisé avec P. obtusifloius, on obtient P. x saxonicus Hagström.
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La plante est répandue quasi-mondialement. Elle se développe dans les eaux tranquilles[2].
+La plante est répandue quasi-mondialement. Elle se développe dans les eaux tranquilles.
 Sur les autres projets Wikimedia :
 Potamogeton pusillus, sur Wikimedia CommonsPotamogeton pusillus, sur Wikispecies
 </t>
